--- a/docs/data/RequirementsandPromptRubric.xlsx
+++ b/docs/data/RequirementsandPromptRubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousresearcher2020.github.io/docs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C284EC4-00C5-224F-8183-772717144618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73155DC3-5BA3-8046-8855-1FC924F3C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Rubric" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="104">
   <si>
     <t>Attribute</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Too coarse-grained/unspecific (e.g., description says "expert in software engineering" without detailed responsibilities)</t>
-  </si>
-  <si>
-    <t>0=&gt;5, 1-2=&gt;4, 3-4=&gt;3, 5-6=&gt;2, 7-8=&gt;1, 9=&gt;0</t>
   </si>
   <si>
     <t>Too fine-grained with unnecessary details (e.g., description contains too much detail hiding the core responsibilities)</t>
@@ -787,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -866,87 +863,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -956,7 +872,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,6 +888,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1188,7 @@
   </sheetPr>
   <dimension ref="A1:Y966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1212,22 +1206,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4"/>
@@ -1250,349 +1244,349 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="45">
+      <c r="E2" s="53"/>
+      <c r="F2" s="44">
         <v>2</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="41">
         <f>(E2*F2 + E7*F7 + E11*F11 + E14*F14 + E18*F18 + E20*F20 + E22*F22 + E24*F24 +  E26*F26)/SUM(F2,F7,F11,F14,F18,F20,F22,F24, F26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="51"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="51"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="34">
+      <c r="E7" s="51"/>
+      <c r="F7" s="47">
         <v>1</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="51"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="42"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34">
+      <c r="E11" s="51"/>
+      <c r="F11" s="47">
         <v>1</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="42"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="51"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="34">
+      <c r="E14" s="51"/>
+      <c r="F14" s="47">
         <v>1</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="51"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="51"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="51"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34">
+      <c r="E18" s="51"/>
+      <c r="F18" s="47">
         <v>1</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="51"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="34">
+      <c r="E20" s="51"/>
+      <c r="F20" s="47">
         <v>1</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="51"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34">
+      <c r="E22" s="51"/>
+      <c r="F22" s="47">
         <v>1</v>
       </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="51"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="34">
+      <c r="E24" s="51"/>
+      <c r="F24" s="47">
         <v>1</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="51"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="54" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="34">
+      <c r="E26" s="51"/>
+      <c r="F26" s="47">
         <v>1</v>
       </c>
-      <c r="G26" s="51"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="52"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
@@ -6291,6 +6285,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="G2:G27"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="F14:F17"/>
@@ -6303,31 +6318,10 @@
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6340,8 +6334,8 @@
   </sheetPr>
   <dimension ref="A1:H1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6349,17 +6343,16 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="104.5" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -6368,1046 +6361,1046 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71">
         <v>2</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="72">
         <f>(F2*G2+F8*G8+F11*G11+F13*G13)/SUM(G2:G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="21"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="59"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="59"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="21"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="59"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="59"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="59"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="23"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60">
         <v>1</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="59"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="59"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60">
         <v>1</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="24"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="59"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60">
         <v>1</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="27"/>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54">
+      <c r="F15" s="71"/>
+      <c r="G15" s="71">
         <v>2</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="73">
         <f>(F15*G15+F19*G19+F21*G21+F23*G23)/SUM(G15:G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="59"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="23"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40">
+      <c r="F17" s="60"/>
+      <c r="G17" s="60">
         <v>1</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="59"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="59"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60">
         <v>1</v>
       </c>
-      <c r="H20" s="59"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="59"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40">
+      <c r="F22" s="60"/>
+      <c r="G22" s="60">
         <v>1</v>
       </c>
-      <c r="H22" s="59"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54">
+      <c r="F24" s="71"/>
+      <c r="G24" s="71">
         <v>2</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="73">
         <f>(F24*G24+F26*G26+F29*G29+F31*G31)/SUM(G24:G33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="24"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="59"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40">
+      <c r="F26" s="60"/>
+      <c r="G26" s="60">
         <v>1</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="59"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="24"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="59"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40">
+      <c r="F29" s="60"/>
+      <c r="G29" s="60">
         <v>1</v>
       </c>
-      <c r="H29" s="59"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="24"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="59"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="63"/>
+      <c r="B31" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40">
+      <c r="F31" s="60"/>
+      <c r="G31" s="60">
         <v>1</v>
       </c>
-      <c r="H31" s="59"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="24"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="59"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="24"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="27"/>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54">
+      <c r="F34" s="71"/>
+      <c r="G34" s="71">
         <v>2</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="73">
         <f>(F34*G34+F36*G36+F39*G39+F41*G41)/SUM(G34:G42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="59"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="23"/>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40">
+      <c r="F36" s="60"/>
+      <c r="G36" s="60">
         <v>1</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="24"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="59"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="59"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="67" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="23"/>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40">
+      <c r="F39" s="60"/>
+      <c r="G39" s="60">
         <v>1</v>
       </c>
-      <c r="H39" s="59"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="24"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="59"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="67" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="23"/>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40">
+      <c r="F41" s="60"/>
+      <c r="G41" s="60">
         <v>1</v>
       </c>
-      <c r="H41" s="59"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="60"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="24"/>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53">
+      <c r="F43" s="74"/>
+      <c r="G43" s="74">
         <v>2</v>
       </c>
-      <c r="H43" s="58">
+      <c r="H43" s="73">
         <f>(F43*G43+F45*G45+F48*G48+F50*G50)/SUM(G43:G51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="56"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="24"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="59"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
-      <c r="B45" s="67" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="23"/>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40">
+      <c r="F45" s="60"/>
+      <c r="G45" s="60">
         <v>1</v>
       </c>
-      <c r="H45" s="59"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="24"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="59"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
-      <c r="B47" s="65"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="24"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="59"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="B48" s="67" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="23"/>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40">
+      <c r="F48" s="60"/>
+      <c r="G48" s="60">
         <v>1</v>
       </c>
-      <c r="H48" s="59"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="24"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="59"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="67" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="23"/>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40">
+      <c r="F50" s="60"/>
+      <c r="G50" s="60">
         <v>1</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="24"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="60"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="43"/>
     </row>
     <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D52" s="27"/>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="71" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="19">
         <v>2</v>
       </c>
-      <c r="H52" s="58">
+      <c r="H52" s="73">
         <f>(F52*G52+F54*G54+F57*G57+F59*G59)/SUM(G52:G61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="B53" s="64"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D53" s="24"/>
-      <c r="E53" s="46"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="30"/>
       <c r="G53" s="28"/>
-      <c r="H53" s="59"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
-      <c r="B54" s="67" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D54" s="23"/>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40">
+      <c r="F54" s="60"/>
+      <c r="G54" s="60">
         <v>1</v>
       </c>
-      <c r="H54" s="59"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
-      <c r="B55" s="64"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D55" s="24"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="59"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="24"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="59"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="42"/>
     </row>
     <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
-      <c r="B57" s="67" t="s">
+      <c r="A57" s="63"/>
+      <c r="B57" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D57" s="23"/>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40">
+      <c r="F57" s="60"/>
+      <c r="G57" s="60">
         <v>1</v>
       </c>
-      <c r="H57" s="59"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
-      <c r="B58" s="65"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="24"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="59"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
-      <c r="B59" s="67" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D59" s="23"/>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60">
+        <v>1</v>
+      </c>
+      <c r="H59" s="42"/>
+    </row>
+    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="63"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40">
-        <v>1</v>
-      </c>
-      <c r="H59" s="59"/>
-    </row>
-    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="20" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="42"/>
+    </row>
+    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="64"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="59"/>
-    </row>
-    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="55"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="43"/>
+    </row>
+    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="60"/>
-    </row>
-    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="57" t="s">
+      <c r="B62" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="D62" s="27"/>
-      <c r="E62" s="54" t="s">
+      <c r="E62" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54">
+      <c r="F62" s="71"/>
+      <c r="G62" s="71">
         <v>2</v>
       </c>
-      <c r="H62" s="58">
+      <c r="H62" s="73">
         <f>(F62*G62+F64*G64+F66*G66+F68*G68)/SUM(G62:G70)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="68"/>
       <c r="C63" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="42"/>
+    </row>
+    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="63"/>
+      <c r="B64" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="59"/>
-    </row>
-    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
-      <c r="B64" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="D64" s="23"/>
-      <c r="E64" s="40" t="s">
+      <c r="E64" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40">
+      <c r="F64" s="60"/>
+      <c r="G64" s="60">
         <v>1</v>
       </c>
-      <c r="H64" s="59"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D65" s="24"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="59"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
-      <c r="B66" s="64"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="42"/>
+    </row>
+    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="63"/>
+      <c r="B67" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="59"/>
-    </row>
-    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="56"/>
-      <c r="B67" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="D67" s="23"/>
+      <c r="E67" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60">
+        <v>1</v>
+      </c>
+      <c r="H67" s="42"/>
+    </row>
+    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="63"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="40" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="42"/>
+    </row>
+    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="63"/>
+      <c r="B69" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40">
+      <c r="F69" s="60"/>
+      <c r="G69" s="60">
         <v>1</v>
       </c>
-      <c r="H67" s="59"/>
-    </row>
-    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="59"/>
-    </row>
-    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
-      <c r="B69" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40">
-        <v>1</v>
-      </c>
-      <c r="H69" s="59"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="55"/>
-      <c r="B70" s="68"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="60"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="43"/>
     </row>
     <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="31"/>
@@ -12161,39 +12154,73 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H14"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H52:H61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H43:H51"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G33"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="B45:B47"/>
@@ -12218,73 +12245,39 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H52:H61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H34:H42"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H43:H51"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H2:H14"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -12308,8 +12301,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="185" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
-        <v>104</v>
+      <c r="A1" s="32" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/RequirementsandPromptRubric.xlsx
+++ b/docs/data/RequirementsandPromptRubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjulia/Library/CloudStorage/Dropbox/Mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/AnonGithub/anonymousresearcher2020.github.io/docs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252A8457-B4E3-4741-8183-0728BA6B9775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2F4F7-01A7-7B4F-8E5E-DE25EB335AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Rubric" sheetId="1" r:id="rId1"/>
@@ -225,12 +225,6 @@
     <t xml:space="preserve">Missing the list of expected components as per the milestone specification (e.g., actors, diagrams, scenarios, etc.) </t>
   </si>
   <si>
-    <t>Incomplete list of expected components as per the milestone specfication (e.g., actors, diagrams, scenarios, etc.)</t>
-  </si>
-  <si>
-    <t>Misaligned with the course material, project description, or request (e.g., describing functional requirement when asking for non-fuctional requirement)</t>
-  </si>
-  <si>
     <t>Expected Format</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>Incomplete expected format (e.g., bulleted list but not suggesting the format for each list)</t>
-  </si>
-  <si>
-    <t>Misaligned with the course material, project description, or request (e.g., outlining the format of functional requirement when asking for non-fuctional requirement)</t>
   </si>
   <si>
     <t>Too coarse-grained/unspecific (e.g., "a list" instead of "bulleted list" or "numbered list")</t>
@@ -358,6 +349,15 @@
   </si>
   <si>
     <t>Imprecise language and notation (e.g., "short" instead of word limit)</t>
+  </si>
+  <si>
+    <t>Misaligned with the course material, project description, or request (e.g., describing functional requirement when asking for non-functional requirement)</t>
+  </si>
+  <si>
+    <t>Incomplete list of expected components as per the milestone specification (e.g., actors, diagrams, scenarios, etc.)</t>
+  </si>
+  <si>
+    <t>Misaligned with the course material, project description, or request (e.g., outlining the format of functional requirement when asking for non-functional requirement)</t>
   </si>
 </sst>
 </file>
@@ -847,109 +847,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,17 +874,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,9 +898,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,6 +918,102 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:Y968"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1291,371 +1291,371 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18">
+      <c r="C2" s="14"/>
+      <c r="D2" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="41">
         <v>2</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="38">
         <f>(E2*F2 + E9*F9 + E13*F13 + E16*F16 + E20*F20 + E22*F22 + E24*F24 + E26*F26 +  E28*F28)/SUM(F2,F9,F13,F16,F20,F22,F24,F26, F28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="53"/>
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="53"/>
+      <c r="B5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="53"/>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="53"/>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="54"/>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="44">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="53"/>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="53"/>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="54"/>
+      <c r="B12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="39"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="44">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="53"/>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="54"/>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="44">
+        <v>1</v>
+      </c>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53"/>
+      <c r="B17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="53"/>
+      <c r="B18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="54"/>
+      <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31">
+      <c r="C19" s="14"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="44">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="23"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31">
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="54"/>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="44">
         <v>1</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31">
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="54"/>
+      <c r="B23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="44">
         <v>1</v>
       </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="54"/>
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="44">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="54"/>
+      <c r="B27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31">
+      <c r="E28" s="48"/>
+      <c r="F28" s="44">
         <v>1</v>
       </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="15" t="s">
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="57"/>
+      <c r="B29" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31">
-        <v>1</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
@@ -6354,6 +6354,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="G2:G29"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="F16:F19"/>
@@ -6370,27 +6391,6 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6403,8 +6403,8 @@
   </sheetPr>
   <dimension ref="A1:H1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6415,13 +6415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -6430,1046 +6430,1046 @@
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66">
         <v>2</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="67">
         <f>(F2*G2+F8*G8+F11*G11+F13*G13)/SUM(G2:G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="61" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58">
         <v>1</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58">
         <v>1</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58">
         <v>1</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41">
+      <c r="F15" s="66"/>
+      <c r="G15" s="66">
         <v>2</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="68">
         <f>(F15*G15+F19*G19+F21*G21+F23*G23)/SUM(G15:G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="61" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34">
+      <c r="F17" s="58"/>
+      <c r="G17" s="58">
         <v>1</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58">
         <v>1</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="34" t="s">
+      <c r="C22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58">
         <v>1</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="41" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66">
         <v>2</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="68">
         <f>(F24*G24+F26*G26+F29*G29+F31*G31)/SUM(G24:G33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="61" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="62"/>
+      <c r="B26" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58">
+        <v>1</v>
+      </c>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="62"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="62"/>
+      <c r="B29" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58">
+        <v>1</v>
+      </c>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="62"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="62"/>
+      <c r="B31" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58">
+        <v>1</v>
+      </c>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="34" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34">
-        <v>1</v>
-      </c>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34">
-        <v>1</v>
-      </c>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41">
+      <c r="F34" s="66"/>
+      <c r="G34" s="66">
         <v>2</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="68">
         <f>(F34*G34+F36*G36+F39*G39+F41*G41)/SUM(G34:G42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="61" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="62"/>
+      <c r="B36" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58">
+        <v>1</v>
+      </c>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="62"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="62"/>
+      <c r="B39" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58">
+        <v>1</v>
+      </c>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="62"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="62"/>
+      <c r="B41" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58">
+        <v>1</v>
+      </c>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34">
-        <v>1</v>
-      </c>
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="34" t="s">
+      <c r="B43" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34">
-        <v>1</v>
-      </c>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
-      <c r="B41" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34">
-        <v>1</v>
-      </c>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-    </row>
-    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49">
+      <c r="F43" s="69"/>
+      <c r="G43" s="69">
         <v>2</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="68">
         <f>(F43*G43+F45*G45+F48*G48+F50*G50)/SUM(G43:G51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="61" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="39"/>
+    </row>
+    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="62"/>
+      <c r="B45" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58">
+        <v>1</v>
+      </c>
+      <c r="H45" s="39"/>
+    </row>
+    <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="39"/>
+    </row>
+    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="62"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="39"/>
+    </row>
+    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="62"/>
+      <c r="B48" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58">
+        <v>1</v>
+      </c>
+      <c r="H48" s="39"/>
+    </row>
+    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="62"/>
+      <c r="B50" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58">
+        <v>1</v>
+      </c>
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="60"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
-      <c r="B45" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34">
-        <v>1</v>
-      </c>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="34" t="s">
+      <c r="B52" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34">
-        <v>1</v>
-      </c>
-      <c r="H48" s="23"/>
-    </row>
-    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34">
-        <v>1</v>
-      </c>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="38"/>
-    </row>
-    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51">
+      <c r="F52" s="22"/>
+      <c r="G52" s="20">
         <v>2</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="68">
         <f>(F52*G52+F54*G54+F57*G57+F59*G59)/SUM(G52:G61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="61" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="39"/>
+    </row>
+    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="62"/>
+      <c r="B54" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58">
+        <v>1</v>
+      </c>
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="39"/>
+    </row>
+    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="62"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="39"/>
+    </row>
+    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="62"/>
+      <c r="B57" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58">
+        <v>1</v>
+      </c>
+      <c r="H57" s="39"/>
+    </row>
+    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="62"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="63" t="s">
+      <c r="D58" s="33"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="39"/>
+    </row>
+    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="62"/>
+      <c r="B59" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="34" t="s">
+      <c r="D59" s="32"/>
+      <c r="E59" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34">
+      <c r="F59" s="58"/>
+      <c r="G59" s="58">
         <v>1</v>
       </c>
-      <c r="H54" s="23"/>
-    </row>
-    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-    </row>
-    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-    </row>
-    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="63" t="s">
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="39"/>
+    </row>
+    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="34" t="s">
+      <c r="D61" s="35"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="40"/>
+    </row>
+    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34">
-        <v>1</v>
-      </c>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-    </row>
-    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
-      <c r="B59" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34">
-        <v>1</v>
-      </c>
-      <c r="H59" s="23"/>
-    </row>
-    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="65"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-    </row>
-    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="67"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-    </row>
-    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41">
+      <c r="F62" s="66"/>
+      <c r="G62" s="66">
         <v>2</v>
       </c>
-      <c r="H62" s="48">
+      <c r="H62" s="68">
         <f>(F62*G62+F64*G64+F66*G66+F68*G68)/SUM(G62:G70)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="61" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="62"/>
+      <c r="B64" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58">
+        <v>1</v>
+      </c>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="62"/>
+      <c r="B67" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
-    </row>
-    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
-      <c r="B64" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="63" t="s">
+      <c r="D67" s="32"/>
+      <c r="E67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58">
+        <v>1</v>
+      </c>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="62"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="64"/>
-      <c r="E64" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34">
+      <c r="D68" s="33"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="39"/>
+    </row>
+    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="62"/>
+      <c r="B69" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="32"/>
+      <c r="E69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58">
         <v>1</v>
       </c>
-      <c r="H64" s="23"/>
-    </row>
-    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="23"/>
-    </row>
-    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="65"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
-    </row>
-    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
-      <c r="B67" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34">
-        <v>1</v>
-      </c>
-      <c r="H67" s="23"/>
-    </row>
-    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="65"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="23"/>
-    </row>
-    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34">
-        <v>1</v>
-      </c>
-      <c r="H69" s="23"/>
+      <c r="H69" s="39"/>
     </row>
     <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="40"/>
     </row>
     <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
@@ -12223,6 +12223,106 @@
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H34:H42"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H43:H51"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H52:H61"/>
+    <mergeCell ref="H24:H33"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H2:H14"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E41:E42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A62:A70"/>
@@ -12247,106 +12347,6 @@
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H14"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="H24:H33"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H52:H61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H34:H42"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H43:H51"/>
-    <mergeCell ref="E34:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -12371,7 +12371,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="185" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
